--- a/فرم/حضورغیاب (Repaired).xlsx
+++ b/فرم/حضورغیاب (Repaired).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sysadmin.DESKTOP-O0RJKP4\Desktop\JoftMozdi-2-1403-main\فرم\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pars-main\فرم\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="15 روز اول" sheetId="5" r:id="rId1"/>
@@ -57,102 +57,102 @@
     <t xml:space="preserve">تائید سر پرست </t>
   </si>
   <si>
-    <t>1403/05/01</t>
-  </si>
-  <si>
-    <t>1403/05/02</t>
-  </si>
-  <si>
-    <t>1403/05/03</t>
-  </si>
-  <si>
-    <t>1403/05/04</t>
-  </si>
-  <si>
-    <t>1403/05/05</t>
-  </si>
-  <si>
-    <t>1403/05/06</t>
-  </si>
-  <si>
-    <t>1403/05/07</t>
-  </si>
-  <si>
-    <t>1403/05/08</t>
-  </si>
-  <si>
-    <t>1403/05/09</t>
-  </si>
-  <si>
-    <t>1403/05/10</t>
-  </si>
-  <si>
-    <t>1403/05/11</t>
-  </si>
-  <si>
-    <t>1403/05/12</t>
-  </si>
-  <si>
-    <t>1403/05/13</t>
-  </si>
-  <si>
-    <t>1403/05/14</t>
-  </si>
-  <si>
-    <t>1403/05/15</t>
-  </si>
-  <si>
-    <t>1403/05/16</t>
-  </si>
-  <si>
-    <t>1403/05/17</t>
-  </si>
-  <si>
-    <t>1403/05/18</t>
-  </si>
-  <si>
-    <t>1403/05/19</t>
-  </si>
-  <si>
-    <t>1403/05/20</t>
-  </si>
-  <si>
-    <t>1403/05/21</t>
-  </si>
-  <si>
-    <t>1403/05/22</t>
-  </si>
-  <si>
-    <t>1403/05/23</t>
-  </si>
-  <si>
-    <t>1403/05/24</t>
-  </si>
-  <si>
-    <t>1403/05/25</t>
-  </si>
-  <si>
-    <t>1403/05/26</t>
-  </si>
-  <si>
-    <t>1403/05/27</t>
-  </si>
-  <si>
-    <t>1403/05/28</t>
-  </si>
-  <si>
-    <t>1403/05/29</t>
-  </si>
-  <si>
-    <t>1403/05/30</t>
-  </si>
-  <si>
-    <t>1403/05/31</t>
-  </si>
-  <si>
     <t>تاریخ : 1403/05/01
 شماره مدرک: PARSQA-24
 تاریخ به روسانی :</t>
+  </si>
+  <si>
+    <t>1403/06/01</t>
+  </si>
+  <si>
+    <t>1403/06/02</t>
+  </si>
+  <si>
+    <t>1403/06/03</t>
+  </si>
+  <si>
+    <t>1403/06/04</t>
+  </si>
+  <si>
+    <t>1403/06/05</t>
+  </si>
+  <si>
+    <t>1403/06/06</t>
+  </si>
+  <si>
+    <t>1403/06/07</t>
+  </si>
+  <si>
+    <t>1403/06/08</t>
+  </si>
+  <si>
+    <t>1403/06/09</t>
+  </si>
+  <si>
+    <t>1403/06/10</t>
+  </si>
+  <si>
+    <t>1403/06/11</t>
+  </si>
+  <si>
+    <t>1403/06/12</t>
+  </si>
+  <si>
+    <t>1403/06/13</t>
+  </si>
+  <si>
+    <t>1403/06/14</t>
+  </si>
+  <si>
+    <t>1403/06/15</t>
+  </si>
+  <si>
+    <t>1403/06/16</t>
+  </si>
+  <si>
+    <t>1403/06/17</t>
+  </si>
+  <si>
+    <t>1403/06/18</t>
+  </si>
+  <si>
+    <t>1403/06/19</t>
+  </si>
+  <si>
+    <t>1403/06/20</t>
+  </si>
+  <si>
+    <t>1403/06/21</t>
+  </si>
+  <si>
+    <t>1403/06/22</t>
+  </si>
+  <si>
+    <t>1403/06/23</t>
+  </si>
+  <si>
+    <t>1403/06/24</t>
+  </si>
+  <si>
+    <t>1403/06/25</t>
+  </si>
+  <si>
+    <t>1403/06/26</t>
+  </si>
+  <si>
+    <t>1403/06/27</t>
+  </si>
+  <si>
+    <t>1403/06/28</t>
+  </si>
+  <si>
+    <t>1403/06/29</t>
+  </si>
+  <si>
+    <t>1403/06/30</t>
+  </si>
+  <si>
+    <t>1403/06/31</t>
   </si>
 </sst>
 </file>
@@ -592,9 +592,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -613,27 +658,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,52 +667,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView rightToLeft="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,127 +1121,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="28" t="s">
+      <c r="A1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="43"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="22"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="22"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="22"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="16"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="22"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
@@ -1295,18 +1295,18 @@
       <c r="Q6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="39" t="s">
+      <c r="R6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="40"/>
-      <c r="T6" s="39" t="s">
+      <c r="S6" s="25"/>
+      <c r="T6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="40"/>
+      <c r="U6" s="25"/>
     </row>
     <row r="7" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
@@ -1324,14 +1324,14 @@
       <c r="O7" s="1"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="27"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21"/>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="1"/>
@@ -1349,14 +1349,14 @@
       <c r="O8" s="1"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="27"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
     </row>
     <row r="9" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
@@ -1374,14 +1374,14 @@
       <c r="O9" s="1"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="27"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="21"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
@@ -1399,14 +1399,14 @@
       <c r="O10" s="1"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="27"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="21"/>
     </row>
     <row r="11" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
@@ -1424,14 +1424,14 @@
       <c r="O11" s="1"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="27"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
     </row>
     <row r="12" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
@@ -1449,14 +1449,14 @@
       <c r="O12" s="1"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="27"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="21"/>
     </row>
     <row r="13" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
@@ -1474,14 +1474,14 @@
       <c r="O13" s="1"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="27"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="21"/>
     </row>
     <row r="14" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="1"/>
@@ -1499,14 +1499,14 @@
       <c r="O14" s="1"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="27"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="21"/>
     </row>
     <row r="15" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="1"/>
@@ -1524,14 +1524,14 @@
       <c r="O15" s="1"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="27"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="21"/>
     </row>
     <row r="16" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="1"/>
@@ -1549,14 +1549,14 @@
       <c r="O16" s="1"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="27"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="21"/>
     </row>
     <row r="17" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="1"/>
@@ -1574,14 +1574,14 @@
       <c r="O17" s="1"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="27"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="21"/>
     </row>
     <row r="18" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="1"/>
@@ -1599,14 +1599,14 @@
       <c r="O18" s="1"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="27"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="21"/>
     </row>
     <row r="19" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="1"/>
@@ -1624,14 +1624,14 @@
       <c r="O19" s="1"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="27"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="21"/>
     </row>
     <row r="20" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="1"/>
@@ -1649,14 +1649,14 @@
       <c r="O20" s="1"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="36"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="23"/>
     </row>
     <row r="21" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="2"/>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="22" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="2"/>
@@ -1705,50 +1705,50 @@
       <c r="U22" s="13"/>
     </row>
     <row r="23" spans="1:21" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="22"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="16"/>
     </row>
     <row r="24" spans="1:21" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="25"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="19"/>
     </row>
     <row r="25" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1765,46 +1765,6 @@
     <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A23:U24"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:Q3"/>
     <mergeCell ref="R1:U5"/>
@@ -1815,6 +1775,46 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="A23:U24"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
   </mergeCells>
   <pageMargins left="0.17708333333333334" right="9.375E-2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1826,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView rightToLeft="1" tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,126 +1859,126 @@
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="49"/>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="43"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50"/>
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="22"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50"/>
       <c r="B3" s="51"/>
       <c r="C3" s="52"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="22"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="22"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="16"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="22"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
@@ -2032,18 +2032,18 @@
       <c r="Q6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="39" t="s">
+      <c r="R6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="40"/>
-      <c r="T6" s="39" t="s">
+      <c r="S6" s="25"/>
+      <c r="T6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="40"/>
+      <c r="U6" s="25"/>
     </row>
     <row r="7" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
@@ -2061,14 +2061,14 @@
       <c r="O7" s="1"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="27"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21"/>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="1"/>
@@ -2086,14 +2086,14 @@
       <c r="O8" s="1"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="27"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
     </row>
     <row r="9" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
@@ -2111,14 +2111,14 @@
       <c r="O9" s="1"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="27"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="21"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
@@ -2136,14 +2136,14 @@
       <c r="O10" s="1"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="27"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="21"/>
     </row>
     <row r="11" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
@@ -2161,14 +2161,14 @@
       <c r="O11" s="1"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="27"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
     </row>
     <row r="12" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
@@ -2186,14 +2186,14 @@
       <c r="O12" s="1"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="27"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="21"/>
     </row>
     <row r="13" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
@@ -2211,14 +2211,14 @@
       <c r="O13" s="1"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="27"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="21"/>
     </row>
     <row r="14" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="1"/>
@@ -2236,14 +2236,14 @@
       <c r="O14" s="1"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="27"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="21"/>
     </row>
     <row r="15" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="1"/>
@@ -2261,14 +2261,14 @@
       <c r="O15" s="1"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="27"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="21"/>
     </row>
     <row r="16" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="1"/>
@@ -2286,14 +2286,14 @@
       <c r="O16" s="1"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="27"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="21"/>
     </row>
     <row r="17" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="1"/>
@@ -2311,14 +2311,14 @@
       <c r="O17" s="1"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="27"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="21"/>
     </row>
     <row r="18" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="1"/>
@@ -2336,14 +2336,14 @@
       <c r="O18" s="1"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="27"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="21"/>
     </row>
     <row r="19" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="1"/>
@@ -2361,14 +2361,14 @@
       <c r="O19" s="1"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="27"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="21"/>
     </row>
     <row r="20" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="1"/>
@@ -2386,14 +2386,14 @@
       <c r="O20" s="1"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="36"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="23"/>
     </row>
     <row r="21" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="2"/>
@@ -2417,50 +2417,50 @@
       <c r="U21" s="11"/>
     </row>
     <row r="22" spans="1:21" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="22"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="16"/>
     </row>
     <row r="23" spans="1:21" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="25"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="19"/>
     </row>
     <row r="24" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2477,40 +2477,6 @@
     <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R1:U5"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="A22:U23"/>
     <mergeCell ref="R17:S17"/>
@@ -2527,6 +2493,40 @@
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R1:U5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.17708333333333334" right="9.375E-2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
